--- a/to_buy/Robot Parts.xlsx
+++ b/to_buy/Robot Parts.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Description</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>https://www.digikey.com/products/en?keywords=P0082-ND</t>
+  </si>
+  <si>
+    <t>http://www.mcmelectronics.com/product/29-7850?scode=GS401&amp;utm_medium=cse&amp;utm_source=google&amp;utm_campaign=google&amp;scid=scplp29-7850&amp;sc_intid=29-7850&amp;gclid=EAIaIQobChMIsdPm9Z2q1QIVR1YNCh20vgVBEAQYByABEgJ0p_D_BwE</t>
   </si>
 </sst>
 </file>
@@ -451,7 +454,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -527,6 +530,9 @@
       <c r="B8">
         <v>1</v>
       </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -677,6 +683,9 @@
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>19</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
